--- a/biology/Botanique/Montaison_(botanique)/Montaison_(botanique).xlsx
+++ b/biology/Botanique/Montaison_(botanique)/Montaison_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La montaison, appelée aussi montée à graine, est un stade dans le cycle annuel d'une plante à graines, l'initiation florale, qui s'accompagne de modifications de l'appareil végétatif avant le stade de préfloraison[1]. 
-C'est un processus d'allongement des espaces entre-nœuds de la tige dressée florifère, quand une plante herbacée « monte en graine ». La montaison qui déclenche la mise à fleur est activée par des  hormones végétales de la famille des gibbérellines[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La montaison, appelée aussi montée à graine, est un stade dans le cycle annuel d'une plante à graines, l'initiation florale, qui s'accompagne de modifications de l'appareil végétatif avant le stade de préfloraison. 
+C'est un processus d'allongement des espaces entre-nœuds de la tige dressée florifère, quand une plante herbacée « monte en graine ». La montaison qui déclenche la mise à fleur est activée par des  hormones végétales de la famille des gibbérellines.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phénomène prend une ampleur particulière chez la rose trémière dont la hampe florale, après la montaison, peut atteindre 2 mètres de hauteur. Chez les salades, la montaison affecte un peu certains légumes racines, mais surtout les légumes feuilles et notamment les laitues (pommées, batavias, romaines, variétés de laitues à couper)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phénomène prend une ampleur particulière chez la rose trémière dont la hampe florale, après la montaison, peut atteindre 2 mètres de hauteur. Chez les salades, la montaison affecte un peu certains légumes racines, mais surtout les légumes feuilles et notamment les laitues (pommées, batavias, romaines, variétés de laitues à couper).
 </t>
         </is>
       </c>
